--- a/Documents/Sportify India Schema stage3.xlsx
+++ b/Documents/Sportify India Schema stage3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,9 +443,6 @@
     <t>not empty</t>
   </si>
   <si>
-    <t>customer_username</t>
-  </si>
-  <si>
     <t>football shoes</t>
   </si>
   <si>
@@ -468,6 +465,9 @@
   </si>
   <si>
     <t>radhika road ,khb lane</t>
+  </si>
+  <si>
+    <t>customer_user_name</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:V94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1151,7 @@
         <v>88</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>89</v>
@@ -1668,10 +1668,10 @@
         <v>4</v>
       </c>
       <c r="E41" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="24" t="s">
         <v>139</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>140</v>
       </c>
       <c r="G41" s="24">
         <v>12</v>
@@ -2334,28 +2334,28 @@
         <v>2</v>
       </c>
       <c r="E87" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="G87" s="9">
         <v>9850245754</v>
       </c>
       <c r="H87" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I87" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I87" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="J87" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K87" s="9" t="s">
         <v>25</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M87" s="9" t="s">
         <v>65</v>

--- a/Documents/Sportify India Schema stage3.xlsx
+++ b/Documents/Sportify India Schema stage3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
@@ -467,7 +467,7 @@
     <t>radhika road ,khb lane</t>
   </si>
   <si>
-    <t>customer_user_name</t>
+    <t>customer_uname</t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -818,7 +818,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:V94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
